--- a/doc/ONCE_DB설계서150705.xlsx
+++ b/doc/ONCE_DB설계서150705.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\document\소상공인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahndoyoung/OneDrive/project/once/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8550"/>
+    <workbookView xWindow="14940" yWindow="580" windowWidth="18080" windowHeight="19020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,17 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
   <si>
     <t>문서번호</t>
   </si>
@@ -478,19 +483,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음료일 경우 사이즈(R or L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_TEMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료일 경우 온도(H or C)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -846,35 +843,6 @@
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금액</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1359,23 +1327,65 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>메뉴 판매 양</t>
+  </si>
+  <si>
+    <t>RECIEPT_SUBTOTAL</t>
+  </si>
+  <si>
+    <t>SALE_QUANTITY</t>
+  </si>
+  <si>
+    <t>메뉴 금액함</t>
+  </si>
+  <si>
+    <t>RECEIPT_DISCOUNT</t>
+  </si>
+  <si>
+    <t>할인 금액</t>
+  </si>
+  <si>
+    <t>SUBTOTAL - DISCOUNT</t>
+  </si>
+  <si>
+    <t>SALE Table quntity 추가, RECEIPT subtotal discount 추가</t>
+  </si>
+  <si>
+    <t>MENU_WHIP</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>F'</t>
+  </si>
+  <si>
+    <t>음료일 경우 온도(H or I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">음료일 경우 사이즈(R or L) </t>
+  </si>
+  <si>
+    <t>휘핑이 기본으로 들어가는경우 T else F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1383,7 +1393,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1428,6 +1438,11 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Airal"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1499,16 +1514,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,13 +1549,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1558,27 +1573,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,23 +1601,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,7 +1628,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1691,7 +1706,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1743,26 +1757,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1776,20 +1798,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1800,16 +1819,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1853,7 +1867,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2141,32 +2155,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.25" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="7" width="9" style="15"/>
+    <col min="1" max="1" width="32.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="7" width="8.83203125" style="15"/>
     <col min="8" max="8" width="32" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2186,16 +2200,16 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="77"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2222,16 +2236,16 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="77"/>
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
@@ -2258,8 +2272,8 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
       <c r="D4" s="23"/>
@@ -2286,19 +2300,19 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88">
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="65">
         <v>42190</v>
       </c>
-      <c r="B5" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="B5" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2318,15 +2332,19 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44">
+        <v>2015.816</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2346,15 +2364,8 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2374,23 +2385,15 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="44"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2410,19 +2413,23 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2442,19 +2449,19 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2474,31 +2481,19 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2518,24 +2513,30 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="43" t="s">
-        <v>38</v>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2556,24 +2557,24 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="11">
-        <v>50</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5" t="s">
-        <v>22</v>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2594,24 +2595,24 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="17" t="s">
-        <v>48</v>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2632,24 +2633,24 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="32">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>53</v>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2670,15 +2671,25 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>53</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2698,12 +2709,12 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="42"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="33"/>
@@ -2726,15 +2737,15 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="2"/>
+    <row r="18" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2754,8 +2765,8 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="14"/>
@@ -2782,23 +2793,15 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
+    <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2818,19 +2821,23 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2850,19 +2857,19 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2882,31 +2889,19 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>16</v>
-      </c>
+    <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2926,24 +2921,30 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+    <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>27</v>
+      </c>
       <c r="H24" s="48" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2964,22 +2965,24 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>121</v>
+        <v>58</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>122</v>
+      <c r="G25" s="30"/>
+      <c r="H25" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3000,24 +3003,22 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="44">
-        <v>40</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>36</v>
-      </c>
+    <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="48" t="s">
-        <v>61</v>
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>120</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3038,22 +3039,24 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="44">
-        <v>1</v>
-      </c>
-      <c r="D27" s="30"/>
+    <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="43">
+        <v>40</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="48" t="s">
-        <v>70</v>
+      <c r="H27" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3074,22 +3077,22 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="44">
+    <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="43">
         <v>1</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="48" t="s">
-        <v>73</v>
+      <c r="H28" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3110,22 +3113,22 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="57">
-        <v>255</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="56" t="s">
-        <v>76</v>
+    <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="43">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3146,22 +3149,24 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="30" t="s">
-        <v>64</v>
-      </c>
+    <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="43">
+        <v>1</v>
+      </c>
+      <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="48" t="s">
-        <v>65</v>
+      <c r="G30" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>193</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3182,24 +3187,22 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="44">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>125</v>
+    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="56">
+        <v>255</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3220,24 +3223,22 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="44"/>
+    <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="43"/>
       <c r="D32" s="30" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
-        <v>50</v>
-      </c>
+      <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="82" t="s">
-        <v>167</v>
+      <c r="H32" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -3258,15 +3259,25 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="2"/>
+    <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="43">
+        <v>1</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -3286,23 +3297,25 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
+    <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="62" t="s">
+        <v>164</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3322,19 +3335,15 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
+    <row r="35" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3354,19 +3363,23 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
+    <row r="36" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3386,29 +3399,19 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51" t="s">
-        <v>16</v>
-      </c>
+    <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3428,25 +3431,19 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="52" t="s">
-        <v>19</v>
-      </c>
+    <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3466,24 +3463,28 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="52" t="s">
-        <v>159</v>
+    <row r="39" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -3504,24 +3505,24 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="29">
-        <v>100</v>
-      </c>
+    <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="29"/>
       <c r="D40" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
-      <c r="H40" s="29" t="s">
-        <v>33</v>
+      <c r="H40" s="51" t="s">
+        <v>19</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -3542,15 +3543,25 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+    <row r="41" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>17</v>
+      </c>
       <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
+      <c r="D41" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="F41" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="30"/>
-      <c r="H41" s="29"/>
+      <c r="H41" s="51" t="s">
+        <v>156</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3570,15 +3581,25 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="2"/>
+    <row r="42" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="29">
+        <v>100</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -3598,23 +3619,15 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+    <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -3634,19 +3647,15 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
+    <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -3666,19 +3675,23 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
+    <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3698,29 +3711,19 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3740,25 +3743,19 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="17" t="s">
-        <v>59</v>
-      </c>
+    <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3778,24 +3775,28 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="8">
-        <v>50</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="17" t="s">
-        <v>67</v>
+    <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3816,15 +3817,25 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+    <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="5"/>
+      <c r="H49" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -3844,15 +3855,25 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="2"/>
+    <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="8">
+        <v>50</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -3872,15 +3893,15 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="2"/>
+    <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -3900,23 +3921,15 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
+    <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3936,19 +3949,15 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
+    <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -3968,19 +3977,23 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="69"/>
+      <c r="E54" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4000,31 +4013,19 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4044,25 +4045,19 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="5" t="s">
-        <v>37</v>
-      </c>
+    <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4082,24 +4077,30 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="83" t="s">
-        <v>165</v>
+    <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -4120,24 +4121,24 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>163</v>
+    <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>128</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C58" s="8"/>
       <c r="D58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="17" t="s">
-        <v>129</v>
+      <c r="H58" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -4158,24 +4159,24 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>164</v>
+    <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C59" s="8"/>
       <c r="D59" s="9" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="84" t="s">
-        <v>166</v>
+      <c r="H59" s="63" t="s">
+        <v>162</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -4196,15 +4197,25 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="9"/>
+    <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="5"/>
+      <c r="H60" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -4224,15 +4235,25 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="59"/>
+    <row r="61" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="64" t="s">
+        <v>163</v>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -4252,23 +4273,23 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
+    <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4288,19 +4309,15 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
+    <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="58"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -4320,19 +4337,23 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
+    <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="69"/>
+      <c r="E64" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4352,31 +4373,19 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="51" t="s">
-        <v>16</v>
-      </c>
+    <row r="65" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4396,25 +4405,19 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="52" t="s">
-        <v>37</v>
-      </c>
+    <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -4434,22 +4437,30 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
+    <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H67" s="50" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -4470,24 +4481,24 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="44">
-        <v>1</v>
-      </c>
+    <row r="68" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="29"/>
       <c r="D68" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="F68" s="30"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="50" t="s">
-        <v>139</v>
+      <c r="G68" s="30"/>
+      <c r="H68" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4508,22 +4519,22 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="44"/>
+    <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="29"/>
       <c r="D69" s="30" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="52" t="s">
-        <v>142</v>
+      <c r="H69" s="49" t="s">
+        <v>134</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -4544,15 +4555,25 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="30"/>
+    <row r="70" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="43">
+        <v>1</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="52"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="49" t="s">
+        <v>137</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -4572,15 +4593,23 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="2"/>
+    <row r="71" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="61">
+        <v>0</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>185</v>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -4600,23 +4629,23 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="70"/>
-      <c r="E72" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
+    <row r="72" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="56" t="s">
+        <v>183</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -4636,19 +4665,23 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
+    <row r="73" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="67" t="s">
+        <v>186</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -4668,19 +4701,15 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
+    <row r="74" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -4700,29 +4729,23 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18" t="s">
-        <v>16</v>
-      </c>
+    <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="69"/>
+      <c r="E75" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -4742,25 +4765,19 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="48" t="s">
-        <v>34</v>
-      </c>
+    <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -4780,25 +4797,19 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="47">
-        <v>150</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="48" t="s">
-        <v>81</v>
-      </c>
+    <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -4818,24 +4829,28 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="47">
-        <v>300</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="48" t="s">
-        <v>83</v>
+    <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4856,24 +4871,24 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="47"/>
+    <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="46"/>
       <c r="D79" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19" t="s">
-        <v>87</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="19"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="48" t="s">
-        <v>172</v>
+      <c r="H79" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4894,22 +4909,24 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="47"/>
+    <row r="80" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="46">
+        <v>150</v>
+      </c>
       <c r="D80" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="48" t="s">
-        <v>89</v>
+      <c r="H80" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4930,22 +4947,24 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" s="47"/>
-      <c r="D81" s="19"/>
+    <row r="81" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="46">
+        <v>300</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="19">
-        <v>0</v>
-      </c>
-      <c r="H81" s="48" t="s">
-        <v>98</v>
+      <c r="G81" s="19"/>
+      <c r="H81" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4966,22 +4985,24 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="19"/>
+    <row r="82" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="46"/>
+      <c r="D82" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19">
-        <v>0</v>
-      </c>
-      <c r="H82" s="48" t="s">
-        <v>92</v>
+      <c r="F82" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -5002,24 +5023,22 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="47">
-        <v>1</v>
-      </c>
-      <c r="D83" s="19"/>
+    <row r="83" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="46"/>
+      <c r="D83" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="H83" s="48" t="s">
-        <v>96</v>
+      <c r="G83" s="19"/>
+      <c r="H83" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -5040,15 +5059,23 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="46"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="46"/>
+    <row r="84" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="46"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19">
+        <v>0</v>
+      </c>
+      <c r="H84" s="47" t="s">
+        <v>96</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -5068,15 +5095,23 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="2"/>
+    <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="46"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19">
+        <v>0</v>
+      </c>
+      <c r="H85" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5096,15 +5131,25 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="2"/>
+    <row r="86" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="46">
+        <v>1</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" s="47" t="s">
+        <v>94</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5124,23 +5169,15 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
+    <row r="87" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5160,19 +5197,15 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
+    <row r="88" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -5192,19 +5225,15 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
+    <row r="89" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="3"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5224,29 +5253,23 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="90" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="69"/>
+      <c r="E90" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5266,25 +5289,19 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="91" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5304,25 +5321,19 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="8">
-        <v>50</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="5" t="s">
-        <v>29</v>
-      </c>
+    <row r="92" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5342,15 +5353,29 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="2"/>
+    <row r="93" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -5370,15 +5395,25 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="3"/>
+    <row r="94" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -5398,23 +5433,25 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="73"/>
-      <c r="E95" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95" s="73"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
+    <row r="95" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="8">
+        <v>50</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -5434,19 +5471,15 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" s="70"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
+    <row r="96" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -5466,19 +5499,15 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
+    <row r="97" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="3"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -5498,29 +5527,23 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="85"/>
+      <c r="E98" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -5540,25 +5563,19 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="99" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -5578,25 +5595,19 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="25" t="s">
-        <v>181</v>
-      </c>
+    <row r="100" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -5616,24 +5627,28 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="29">
-        <v>255</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="29" t="s">
-        <v>33</v>
+    <row r="101" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -5654,15 +5669,25 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="2"/>
+    <row r="102" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -5682,15 +5707,25 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="2"/>
+    <row r="103" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="27"/>
+      <c r="H103" s="25" t="s">
+        <v>178</v>
+      </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -5710,23 +5745,25 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C104" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
+    <row r="104" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="29">
+        <v>255</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -5746,19 +5783,15 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="87"/>
+    <row r="105" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -5778,19 +5811,15 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
+    <row r="106" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -5810,29 +5839,23 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B107" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="74"/>
+      <c r="E107" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -5844,25 +5867,19 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="48" t="s">
-        <v>34</v>
-      </c>
+    <row r="108" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="88"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="88"/>
+      <c r="H108" s="89"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -5874,25 +5891,19 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="29">
-        <v>150</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="48" t="s">
-        <v>104</v>
-      </c>
+    <row r="109" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="83"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -5904,24 +5915,28 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="8">
-        <v>300</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="17" t="s">
-        <v>107</v>
+    <row r="110" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5934,24 +5949,24 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111" s="8">
-        <v>255</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="17" t="s">
-        <v>105</v>
+    <row r="111" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="29"/>
+      <c r="D111" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -5964,26 +5979,24 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" s="9">
-        <v>0</v>
-      </c>
-      <c r="H112" s="17" t="s">
-        <v>109</v>
+    <row r="112" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="29">
+        <v>150</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -5996,22 +6009,24 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C113" s="8">
+        <v>300</v>
+      </c>
       <c r="D113" s="9" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="17" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -6024,22 +6039,24 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="12" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C114" s="8">
+        <v>255</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="9">
-        <v>0</v>
-      </c>
+      <c r="G114" s="9"/>
       <c r="H114" s="17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -6052,24 +6069,26 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="8">
-        <v>1</v>
-      </c>
-      <c r="D115" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="16" t="s">
-        <v>115</v>
+      <c r="F115" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="9">
+        <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -6082,15 +6101,23 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="12"/>
-      <c r="B116" s="5"/>
+    <row r="116" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="17"/>
+      <c r="H116" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -6102,15 +6129,23 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="12"/>
-      <c r="B117" s="5"/>
+    <row r="117" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="17"/>
+      <c r="G117" s="9">
+        <v>0</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
@@ -6122,15 +6157,25 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="2"/>
+    <row r="118" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -6142,15 +6187,15 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+    <row r="119" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="12"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="17"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -6162,15 +6207,15 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+    <row r="120" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="12"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="17"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -6182,14 +6227,14 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -6202,7 +6247,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6222,7 +6267,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6242,7 +6287,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6262,7 +6307,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6282,13 +6327,14 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -6301,7 +6347,7 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6321,7 +6367,7 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6341,14 +6387,13 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -6361,7 +6406,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6381,7 +6426,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6401,7 +6446,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6421,7 +6466,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6441,7 +6486,7 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6461,7 +6506,7 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6481,7 +6526,7 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6501,7 +6546,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6521,7 +6566,7 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6541,7 +6586,7 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6561,7 +6606,7 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6581,7 +6626,7 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6601,7 +6646,7 @@
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6621,7 +6666,7 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6641,7 +6686,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6661,7 +6706,7 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6681,18 +6726,19 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6702,7 +6748,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6714,19 +6760,18 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6738,7 +6783,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6750,7 +6795,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6770,7 +6815,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6790,7 +6835,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6810,7 +6855,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6830,7 +6875,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6850,7 +6895,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6870,7 +6915,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6890,7 +6935,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6898,6 +6943,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
@@ -6917,7 +6963,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6945,7 +6991,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6973,7 +7019,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6981,7 +7027,6 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -7001,7 +7046,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7029,14 +7074,14 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -7057,14 +7102,14 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -7085,14 +7130,14 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -7105,8 +7150,15 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
@@ -7115,7 +7167,15 @@
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -7127,7 +7187,15 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -7139,7 +7207,8 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -7151,7 +7220,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -7163,7 +7232,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
@@ -7175,7 +7244,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
@@ -7187,7 +7256,7 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -7199,7 +7268,7 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
@@ -7211,7 +7280,7 @@
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -7223,7 +7292,7 @@
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
@@ -7235,7 +7304,7 @@
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
@@ -7247,7 +7316,7 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
@@ -7259,7 +7328,7 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
@@ -7271,7 +7340,7 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
@@ -7283,7 +7352,7 @@
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
@@ -7295,7 +7364,7 @@
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -7307,7 +7376,7 @@
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -7319,7 +7388,7 @@
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -7331,7 +7400,7 @@
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -7343,7 +7412,7 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -7355,7 +7424,7 @@
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
@@ -7367,7 +7436,7 @@
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
@@ -7379,7 +7448,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -7391,7 +7460,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -7403,7 +7472,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="9:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
@@ -7415,7 +7484,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -7427,7 +7496,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -7439,7 +7508,7 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
@@ -7451,7 +7520,7 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
@@ -7463,7 +7532,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
@@ -7475,7 +7544,7 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
@@ -7487,7 +7556,7 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
@@ -7499,7 +7568,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
@@ -7511,7 +7580,7 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
@@ -7523,7 +7592,7 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
@@ -7543,7 +7612,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
@@ -7563,7 +7632,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
@@ -7583,7 +7652,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
@@ -7603,7 +7672,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
@@ -7623,7 +7692,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
@@ -7643,7 +7712,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
@@ -7663,7 +7732,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
@@ -7683,7 +7752,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
@@ -7703,7 +7772,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
@@ -7723,7 +7792,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
@@ -7743,7 +7812,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
@@ -7763,7 +7832,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
@@ -7783,7 +7852,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
@@ -7803,7 +7872,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
@@ -7823,7 +7892,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
@@ -7843,7 +7912,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
@@ -7863,7 +7932,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
@@ -7883,7 +7952,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -7902,7 +7971,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
@@ -7921,7 +7990,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
@@ -7934,7 +8003,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
@@ -7947,7 +8016,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="9:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
@@ -7960,7 +8029,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P225" s="2"/>
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
@@ -7973,7 +8042,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P226" s="2"/>
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
@@ -7986,7 +8055,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P227" s="2"/>
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
@@ -7999,7 +8068,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P228" s="2"/>
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
@@ -8012,7 +8081,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
@@ -8025,7 +8094,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P230" s="2"/>
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
@@ -8038,7 +8107,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
@@ -8051,7 +8120,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P232" s="2"/>
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
@@ -8064,7 +8133,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P233" s="2"/>
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
@@ -8077,7 +8146,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P234" s="2"/>
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
@@ -8090,7 +8159,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P235" s="2"/>
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
@@ -8103,7 +8172,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P236" s="2"/>
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
@@ -8116,7 +8185,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P237" s="2"/>
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
@@ -8129,7 +8198,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P238" s="2"/>
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
@@ -8142,7 +8211,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P239" s="2"/>
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
@@ -8155,7 +8224,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P240" s="2"/>
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
@@ -8168,7 +8237,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P241" s="2"/>
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
@@ -8181,7 +8250,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P242" s="2"/>
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
@@ -8194,7 +8263,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P243" s="2"/>
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
@@ -8207,7 +8276,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P244" s="2"/>
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
@@ -8220,7 +8289,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P245" s="2"/>
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
@@ -8233,7 +8302,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P246" s="2"/>
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
@@ -8246,7 +8315,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P247" s="2"/>
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
@@ -8259,7 +8328,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P248" s="2"/>
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
@@ -8272,7 +8341,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P249" s="2"/>
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
@@ -8285,7 +8354,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P250" s="2"/>
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
@@ -8298,7 +8367,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P251" s="2"/>
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
@@ -8311,7 +8380,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P252" s="2"/>
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
@@ -8324,7 +8393,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P253" s="2"/>
       <c r="Q253" s="2"/>
       <c r="R253" s="2"/>
@@ -8337,7 +8406,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="16:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P254" s="2"/>
       <c r="Q254" s="2"/>
       <c r="R254" s="2"/>
@@ -8351,52 +8420,53 @@
       <c r="Z254" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:H72"/>
+  <mergeCells count="46">
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="B108:H108"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8410,7 +8480,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8423,7 +8493,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ONCE_DB설계서150705.xlsx
+++ b/doc/ONCE_DB설계서150705.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="580" windowWidth="18080" windowHeight="19020"/>
+    <workbookView xWindow="14940" yWindow="460" windowWidth="18080" windowHeight="19020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1349,9 +1349,6 @@
     <t>SUBTOTAL - DISCOUNT</t>
   </si>
   <si>
-    <t>SALE Table quntity 추가, RECEIPT subtotal discount 추가</t>
-  </si>
-  <si>
     <t>MENU_WHIP</t>
   </si>
   <si>
@@ -1368,13 +1365,16 @@
   </si>
   <si>
     <t>휘핑이 기본으로 들어가는경우 T else F</t>
+  </si>
+  <si>
+    <t>SALE Table quntity 추가, RECEIPT subtotal discount 추가, MENU WHIP 추가</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,11 +1438,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Airal"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1772,14 +1767,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1787,22 +1776,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1819,7 +1795,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준 2" xfId="1"/>
@@ -2155,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2169,18 +2164,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2201,15 +2196,15 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
+      <c r="A2" s="84"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2237,15 +2232,15 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
@@ -2304,15 +2299,15 @@
       <c r="A5" s="65">
         <v>42190</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2333,18 +2328,18 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44">
-        <v>2015.816</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="A6" s="65">
+        <v>42232</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2420,16 +2415,16 @@
       <c r="B9" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="71" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2453,15 +2448,15 @@
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2485,15 +2480,15 @@
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2828,16 +2823,16 @@
       <c r="B21" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="71" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2861,15 +2856,15 @@
       <c r="A22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2893,15 +2888,15 @@
       <c r="A23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3092,7 +3087,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3128,7 +3123,7 @@
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3151,10 +3146,10 @@
     </row>
     <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="66" t="s">
         <v>188</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>189</v>
       </c>
       <c r="C30" s="43">
         <v>1</v>
@@ -3163,10 +3158,10 @@
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3370,16 +3365,16 @@
       <c r="B36" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71" t="s">
+      <c r="D36" s="75"/>
+      <c r="E36" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3403,15 +3398,15 @@
       <c r="A37" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3435,15 +3430,15 @@
       <c r="A38" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3682,16 +3677,16 @@
       <c r="B45" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="C45" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75" t="s">
+      <c r="D45" s="72"/>
+      <c r="E45" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3715,15 +3710,15 @@
       <c r="A46" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3747,15 +3742,15 @@
       <c r="A47" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3984,16 +3979,16 @@
       <c r="B54" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="71" t="s">
+      <c r="D54" s="75"/>
+      <c r="E54" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4017,15 +4012,15 @@
       <c r="A55" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4049,15 +4044,15 @@
       <c r="A56" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4344,16 +4339,16 @@
       <c r="B64" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="69"/>
-      <c r="E64" s="71" t="s">
+      <c r="D64" s="75"/>
+      <c r="E64" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4377,15 +4372,15 @@
       <c r="A65" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4409,15 +4404,15 @@
       <c r="A66" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="69"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -4630,7 +4625,7 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="56" t="s">
         <v>181</v>
       </c>
       <c r="B72" s="56" t="s">
@@ -4666,10 +4661,10 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="68" t="s">
         <v>139</v>
       </c>
       <c r="C73" s="43"/>
@@ -4679,7 +4674,7 @@
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
-      <c r="H73" s="67" t="s">
+      <c r="H73" s="68" t="s">
         <v>186</v>
       </c>
       <c r="I73" s="2"/>
@@ -4736,16 +4731,16 @@
       <c r="B75" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="72" t="s">
+      <c r="C75" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="71" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -4769,15 +4764,15 @@
       <c r="A76" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -4801,15 +4796,15 @@
       <c r="A77" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -5260,16 +5255,16 @@
       <c r="B90" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="69"/>
-      <c r="E90" s="71" t="s">
+      <c r="D90" s="75"/>
+      <c r="E90" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5293,15 +5288,15 @@
       <c r="A91" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="69"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5325,15 +5320,15 @@
       <c r="A92" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5534,16 +5529,16 @@
       <c r="B98" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="84" t="s">
+      <c r="C98" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="85"/>
-      <c r="E98" s="86" t="s">
+      <c r="D98" s="78"/>
+      <c r="E98" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -5567,15 +5562,15 @@
       <c r="A99" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="68" t="s">
+      <c r="B99" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -5599,15 +5594,15 @@
       <c r="A100" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="68" t="s">
+      <c r="B100" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -5846,16 +5841,16 @@
       <c r="B107" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="75" t="s">
+      <c r="D107" s="72"/>
+      <c r="E107" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -5871,15 +5866,15 @@
       <c r="A108" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="87" t="s">
+      <c r="B108" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="88"/>
-      <c r="H108" s="89"/>
+      <c r="C108" s="81"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="81"/>
+      <c r="H108" s="82"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -5895,15 +5890,15 @@
       <c r="A109" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="82" t="s">
+      <c r="B109" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="83"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -8421,36 +8416,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="E21:H21"/>
@@ -8467,6 +8432,36 @@
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="B108:H108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ONCE_DB설계서150705.xlsx
+++ b/doc/ONCE_DB설계서150705.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="460" windowWidth="18080" windowHeight="19020"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
   <si>
     <t>문서번호</t>
   </si>
@@ -787,14 +787,6 @@
   </si>
   <si>
     <t>Once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매 일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1007,10 +999,6 @@
   </si>
   <si>
     <t>SALE_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1368,6 +1356,18 @@
   </si>
   <si>
     <t>SALE Table quntity 추가, RECEIPT subtotal discount 추가, MENU WHIP 추가</t>
+  </si>
+  <si>
+    <t>MENU_CATEGORY_DELETE</t>
+  </si>
+  <si>
+    <t>메뉴 삭제 유무 Y or N</t>
+  </si>
+  <si>
+    <t>N'</t>
+  </si>
+  <si>
+    <t>MENU_CATEGORY_DELETE 추가, SALE_DATE 삭제 -&gt; RECIEPT JOIN 해서 사용</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1623,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1761,14 +1761,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1776,9 +1780,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1795,26 +1812,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준 2" xfId="1"/>
@@ -2150,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2164,18 +2165,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2196,15 +2197,15 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2232,15 +2233,15 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
@@ -2296,18 +2297,18 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65">
+      <c r="A5" s="91">
         <v>42190</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="B5" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2328,18 +2329,18 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="65">
+      <c r="A6" s="91">
         <v>42232</v>
       </c>
-      <c r="B6" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="B6" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2360,7 +2361,18 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
+      <c r="A7" s="91">
+        <v>42250</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2415,16 +2427,16 @@
       <c r="B9" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="88" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2448,15 +2460,15 @@
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2480,15 +2492,15 @@
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2823,16 +2835,16 @@
       <c r="B21" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="88" t="s">
+      <c r="D21" s="69"/>
+      <c r="E21" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2856,15 +2868,15 @@
       <c r="A22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2888,15 +2900,15 @@
       <c r="A23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3000,7 +3012,7 @@
     </row>
     <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>119</v>
@@ -3036,7 +3048,7 @@
     </row>
     <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B27" s="45" t="s">
         <v>60</v>
@@ -3087,7 +3099,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3123,7 +3135,7 @@
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3145,11 +3157,11 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>188</v>
+      <c r="A30" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>185</v>
       </c>
       <c r="C30" s="43">
         <v>1</v>
@@ -3158,10 +3170,10 @@
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="66" t="s">
         <v>189</v>
-      </c>
-      <c r="H30" s="67" t="s">
-        <v>192</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3256,7 +3268,7 @@
     </row>
     <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" s="51" t="s">
         <v>121</v>
@@ -3294,7 +3306,7 @@
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>25</v>
@@ -3309,7 +3321,7 @@
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3365,16 +3377,16 @@
       <c r="B36" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="88" t="s">
+      <c r="D36" s="69"/>
+      <c r="E36" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3398,15 +3410,15 @@
       <c r="A37" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
+      <c r="B37" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3430,15 +3442,15 @@
       <c r="A38" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3502,7 +3514,7 @@
     </row>
     <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B40" s="51" t="s">
         <v>17</v>
@@ -3555,7 +3567,7 @@
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3578,7 +3590,7 @@
     </row>
     <row r="42" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>32</v>
@@ -3677,16 +3689,16 @@
       <c r="B45" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="73" t="s">
+      <c r="D45" s="74"/>
+      <c r="E45" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3710,15 +3722,15 @@
       <c r="A46" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
+      <c r="B46" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3742,15 +3754,15 @@
       <c r="A47" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3814,7 +3826,7 @@
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>35</v>
@@ -3852,7 +3864,7 @@
     </row>
     <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>21</v>
@@ -3889,14 +3901,24 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="5"/>
+      <c r="G51" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -3979,16 +4001,16 @@
       <c r="B54" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="88" t="s">
+      <c r="D54" s="69"/>
+      <c r="E54" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4012,15 +4034,15 @@
       <c r="A55" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
+      <c r="B55" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4044,15 +4066,15 @@
       <c r="A56" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4118,7 +4140,7 @@
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>17</v>
@@ -4156,7 +4178,7 @@
     </row>
     <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>35</v>
@@ -4171,7 +4193,7 @@
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -4194,22 +4216,22 @@
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="64" t="s">
         <v>160</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -4232,22 +4254,20 @@
     </row>
     <row r="61" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C61" s="11"/>
-      <c r="D61" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="64" t="s">
-        <v>163</v>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4269,22 +4289,14 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="58"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4305,14 +4317,22 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="58"/>
+      <c r="A63" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="69"/>
+      <c r="E63" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -4334,21 +4354,17 @@
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
+        <v>8</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4370,17 +4386,17 @@
     </row>
     <row r="65" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
+        <v>9</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4402,17 +4418,29 @@
     </row>
     <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
+        <v>10</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="50" t="s">
+        <v>16</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -4433,29 +4461,23 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="50" t="s">
-        <v>16</v>
+      <c r="A67" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -4478,22 +4500,20 @@
     </row>
     <row r="68" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="51" t="s">
         <v>130</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>17</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>18</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E68" s="30"/>
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
-      <c r="H68" s="51" t="s">
-        <v>37</v>
+      <c r="H68" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4515,21 +4535,23 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="33" t="s">
-        <v>131</v>
+      <c r="A69" s="65" t="s">
+        <v>144</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="C69" s="43">
+        <v>1</v>
+      </c>
       <c r="D69" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
+      <c r="G69" s="61"/>
       <c r="H69" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -4551,23 +4573,21 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="43">
-        <v>1</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>136</v>
-      </c>
+      <c r="A70" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="49" t="s">
-        <v>137</v>
+      <c r="G70" s="61">
+        <v>0</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -4589,21 +4609,21 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="29" t="s">
+      <c r="A71" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="61">
-        <v>0</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>185</v>
+      <c r="C71" s="56"/>
+      <c r="D71" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4625,20 +4645,20 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="56" t="s">
+      <c r="A72" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="67" t="s">
         <v>183</v>
       </c>
       <c r="I72" s="2"/>
@@ -4661,22 +4681,14 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="68" t="s">
-        <v>186</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -4697,14 +4709,22 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="2"/>
+      <c r="A74" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -4726,21 +4746,17 @@
     </row>
     <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
+        <v>8</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -4762,17 +4778,17 @@
     </row>
     <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
+        <v>9</v>
+      </c>
+      <c r="B76" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -4793,18 +4809,28 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
+      <c r="A77" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -4825,27 +4851,23 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18" t="s">
-        <v>16</v>
+      <c r="A78" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="46"/>
+      <c r="D78" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4868,22 +4890,22 @@
     </row>
     <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="46"/>
+        <v>78</v>
+      </c>
+      <c r="C79" s="46">
+        <v>150</v>
+      </c>
       <c r="D79" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="47" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4906,13 +4928,13 @@
     </row>
     <row r="80" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B80" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="46">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>50</v>
@@ -4921,7 +4943,7 @@
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4944,22 +4966,22 @@
     </row>
     <row r="81" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" s="46">
-        <v>300</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C81" s="46"/>
       <c r="D81" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
+      <c r="F81" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="G81" s="19"/>
       <c r="H81" s="47" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4982,22 +5004,20 @@
     </row>
     <row r="82" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C82" s="46"/>
       <c r="D82" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E82" s="19"/>
-      <c r="F82" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="47" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -5020,20 +5040,20 @@
     </row>
     <row r="83" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B83" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="46"/>
-      <c r="D83" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+      <c r="G83" s="19">
+        <v>0</v>
+      </c>
       <c r="H83" s="47" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -5056,10 +5076,10 @@
     </row>
     <row r="84" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C84" s="46"/>
       <c r="D84" s="19"/>
@@ -5069,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="47" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -5092,20 +5112,22 @@
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="46"/>
+        <v>92</v>
+      </c>
+      <c r="C85" s="46">
+        <v>1</v>
+      </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="19">
-        <v>0</v>
+      <c r="G85" s="59" t="s">
+        <v>93</v>
       </c>
       <c r="H85" s="47" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -5127,24 +5149,14 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="46">
-        <v>1</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="H86" s="47" t="s">
-        <v>94</v>
-      </c>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="45"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5165,14 +5177,14 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="45"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5193,7 +5205,7 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="14"/>
@@ -5221,14 +5233,22 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="3"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="2"/>
+      <c r="A89" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="69"/>
+      <c r="E89" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5250,21 +5270,17 @@
     </row>
     <row r="90" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="75"/>
-      <c r="E90" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
+        <v>8</v>
+      </c>
+      <c r="B90" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5286,17 +5302,17 @@
     </row>
     <row r="91" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="75"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="75"/>
+        <v>9</v>
+      </c>
+      <c r="B91" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5317,18 +5333,28 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="75"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="75"/>
+      <c r="A92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5349,27 +5375,23 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6" t="s">
-        <v>16</v>
+      <c r="A93" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -5391,23 +5413,23 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="7" t="s">
-        <v>141</v>
+      <c r="A94" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C94" s="8">
+        <v>50</v>
+      </c>
       <c r="D94" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -5429,24 +5451,14 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="8">
-        <v>50</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -5467,14 +5479,14 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="2"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="3"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -5495,14 +5507,22 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="3"/>
+      <c r="A97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="85"/>
+      <c r="E97" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -5523,22 +5543,18 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="78"/>
-      <c r="E98" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="F98" s="78"/>
-      <c r="G98" s="78"/>
-      <c r="H98" s="78"/>
+      <c r="A98" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -5560,17 +5576,17 @@
     </row>
     <row r="99" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
+        <v>9</v>
+      </c>
+      <c r="B99" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -5591,18 +5607,28 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="75"/>
-      <c r="H100" s="75"/>
+      <c r="A100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -5623,27 +5649,23 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6" t="s">
-        <v>16</v>
+      <c r="A101" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -5665,23 +5687,23 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="5" t="s">
-        <v>19</v>
+      <c r="C102" s="32"/>
+      <c r="D102" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="27"/>
+      <c r="H102" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -5703,23 +5725,23 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="27"/>
-      <c r="H103" s="25" t="s">
-        <v>178</v>
+      <c r="A103" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="29">
+        <v>255</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -5741,24 +5763,14 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="29">
-        <v>255</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -5807,14 +5819,22 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="2"/>
+      <c r="A106" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="74"/>
+      <c r="E106" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -5835,22 +5855,18 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="72"/>
-      <c r="E107" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
+      <c r="A107" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="88"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="88"/>
+      <c r="H107" s="89"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -5863,18 +5879,18 @@
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" s="81"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="82"/>
+      <c r="A108" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="83"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -5888,17 +5904,27 @@
     </row>
     <row r="109" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
+        <v>10</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -5911,27 +5937,23 @@
       <c r="R109" s="2"/>
     </row>
     <row r="110" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20" t="s">
-        <v>16</v>
+      <c r="A110" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5946,22 +5968,22 @@
     </row>
     <row r="111" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="29">
+        <v>150</v>
+      </c>
       <c r="D111" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>100</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E111" s="30"/>
       <c r="F111" s="30"/>
       <c r="G111" s="30"/>
       <c r="H111" s="47" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -5975,23 +5997,23 @@
       <c r="R111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="37" t="s">
+      <c r="A112" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="29">
-        <v>150</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="47" t="s">
-        <v>102</v>
+      <c r="C112" s="8">
+        <v>300</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -6006,13 +6028,13 @@
     </row>
     <row r="113" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C113" s="8">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>18</v>
@@ -6021,7 +6043,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -6036,22 +6058,24 @@
     </row>
     <row r="114" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="12" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="8">
-        <v>255</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C114" s="8"/>
       <c r="D114" s="9" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="F114" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0</v>
+      </c>
       <c r="H114" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -6066,24 +6090,20 @@
     </row>
     <row r="115" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="9" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G115" s="9">
-        <v>0</v>
-      </c>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="17" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -6098,20 +6118,20 @@
     </row>
     <row r="116" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="12" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="9" t="s">
-        <v>176</v>
-      </c>
+      <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="G116" s="9">
+        <v>0</v>
+      </c>
       <c r="H116" s="17" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -6126,20 +6146,22 @@
     </row>
     <row r="117" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="C117" s="8">
+        <v>1</v>
+      </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="9">
-        <v>0</v>
+      <c r="G117" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -6153,24 +6175,14 @@
       <c r="R117" s="2"/>
     </row>
     <row r="118" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="8">
-        <v>1</v>
-      </c>
+      <c r="A118" s="12"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="8"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H118" s="17" t="s">
-        <v>114</v>
-      </c>
+      <c r="G118" s="9"/>
+      <c r="H118" s="17"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -6203,14 +6215,14 @@
       <c r="R119" s="2"/>
     </row>
     <row r="120" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="12"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="17"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -6226,10 +6238,10 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -6365,11 +6377,10 @@
     <row r="128" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -6385,10 +6396,11 @@
     <row r="129" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -6746,11 +6758,10 @@
     <row r="148" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -6758,10 +6769,11 @@
     <row r="149" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -6994,7 +7006,6 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -7022,6 +7033,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -7129,10 +7141,10 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -7184,13 +7196,6 @@
     </row>
     <row r="169" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -7203,7 +7208,6 @@
       <c r="R169" s="2"/>
     </row>
     <row r="170" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -8415,35 +8419,17 @@
       <c r="Z254" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
+  <mergeCells count="47">
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:H106"/>
+    <mergeCell ref="B98:H98"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B99:H99"/>
     <mergeCell ref="B91:H91"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="B107:H107"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:E2"/>
@@ -8452,16 +8438,35 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ONCE_DB설계서150705.xlsx
+++ b/doc/ONCE_DB설계서150705.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18860"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="196">
   <si>
     <t>문서번호</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>MENU_CATEGORY_DELETE 추가, SALE_DATE 삭제 -&gt; RECIEPT JOIN 해서 사용</t>
+  </si>
+  <si>
+    <t>port 변경: 3306 -&gt; 3025, password: once1234</t>
   </si>
 </sst>
 </file>
@@ -1764,15 +1767,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1780,22 +1777,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1812,10 +1796,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준 2" xfId="1"/>
@@ -2151,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H7"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2165,18 +2168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2197,15 +2200,15 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
+      <c r="A2" s="84"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
@@ -2233,15 +2236,15 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
@@ -2297,18 +2300,18 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="91">
+      <c r="A5" s="68">
         <v>42190</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2329,18 +2332,18 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="91">
+      <c r="A6" s="68">
         <v>42232</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2361,18 +2364,18 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="91">
+      <c r="A7" s="68">
         <v>42250</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2393,14 +2396,18 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="68">
+        <v>42264</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2421,22 +2428,14 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2458,17 +2457,21 @@
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2490,17 +2493,17 @@
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2521,30 +2524,18 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2565,23 +2556,29 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="42" t="s">
-        <v>38</v>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2603,23 +2600,23 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="11">
-        <v>50</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="5" t="s">
-        <v>22</v>
+      <c r="A14" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2642,22 +2639,22 @@
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="17" t="s">
-        <v>48</v>
+      <c r="H15" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2679,23 +2676,23 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="32">
-        <v>1</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>53</v>
+      <c r="A16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="11">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2717,14 +2714,24 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33"/>
+      <c r="A17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>53</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2773,14 +2780,14 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2801,7 +2808,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="14"/>
@@ -2829,22 +2836,14 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2866,17 +2865,21 @@
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2898,17 +2901,17 @@
     </row>
     <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2929,30 +2932,18 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>16</v>
-      </c>
+      <c r="A24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2973,23 +2964,29 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="47" t="s">
-        <v>59</v>
+      <c r="A25" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3012,20 +3009,22 @@
     </row>
     <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>119</v>
+        <v>58</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="30">
-        <v>0</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>120</v>
+      <c r="G26" s="30"/>
+      <c r="H26" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3047,23 +3046,21 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="43">
-        <v>40</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="47" t="s">
-        <v>61</v>
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>120</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3086,20 +3083,22 @@
     </row>
     <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="45" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C28" s="43">
-        <v>1</v>
-      </c>
-      <c r="D28" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="47" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3122,10 +3121,10 @@
     </row>
     <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="43">
         <v>1</v>
@@ -3135,7 +3134,7 @@
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3157,11 +3156,11 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>185</v>
+      <c r="A30" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>71</v>
       </c>
       <c r="C30" s="43">
         <v>1</v>
@@ -3169,11 +3168,9 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>189</v>
+      <c r="G30" s="30"/>
+      <c r="H30" s="47" t="s">
+        <v>187</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3195,21 +3192,23 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="56">
-        <v>255</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="55" t="s">
-        <v>74</v>
+      <c r="A31" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>189</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3231,21 +3230,21 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="47" t="s">
-        <v>65</v>
+      <c r="A32" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="56">
+        <v>255</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -3267,23 +3266,21 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="43">
-        <v>1</v>
-      </c>
-      <c r="D33" s="30"/>
+      <c r="A33" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>123</v>
+      <c r="G33" s="30"/>
+      <c r="H33" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3305,23 +3302,23 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="30" t="s">
-        <v>50</v>
-      </c>
+      <c r="A34" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="43">
+        <v>1</v>
+      </c>
+      <c r="D34" s="30"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="62" t="s">
-        <v>161</v>
+      <c r="F34" s="30"/>
+      <c r="G34" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>123</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3343,14 +3340,24 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="62" t="s">
+        <v>161</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3371,22 +3378,14 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3408,17 +3407,21 @@
     </row>
     <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3440,17 +3443,17 @@
     </row>
     <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3472,27 +3475,17 @@
     </row>
     <row r="39" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -3513,23 +3506,27 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="51" t="s">
-        <v>19</v>
+      <c r="A40" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -3552,22 +3549,22 @@
     </row>
     <row r="41" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="30"/>
       <c r="G41" s="30"/>
       <c r="H41" s="51" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3589,23 +3586,23 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="29">
-        <v>100</v>
-      </c>
+      <c r="A42" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="29"/>
       <c r="D42" s="30" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="F42" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="30"/>
-      <c r="H42" s="29" t="s">
-        <v>33</v>
+      <c r="H42" s="51" t="s">
+        <v>154</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3627,14 +3624,24 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="29">
+        <v>100</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="29"/>
+      <c r="H43" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -3655,14 +3662,14 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="2"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -3683,22 +3690,14 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3719,18 +3718,22 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3752,17 +3755,17 @@
     </row>
     <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3783,28 +3786,18 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A48" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -3825,23 +3818,27 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="17" t="s">
-        <v>59</v>
+      <c r="A49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -3864,22 +3861,22 @@
     </row>
     <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="8">
-        <v>50</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3902,22 +3899,22 @@
     </row>
     <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C51" s="8">
+        <v>50</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>192</v>
+      <c r="G51" s="9"/>
+      <c r="H51" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3939,14 +3936,24 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="2"/>
+      <c r="A52" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3967,7 +3974,7 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="14"/>
@@ -3995,22 +4002,14 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4032,17 +4031,21 @@
     </row>
     <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="75"/>
+      <c r="E55" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4064,17 +4067,17 @@
     </row>
     <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B56" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4095,30 +4098,18 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A57" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4139,23 +4130,29 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="5" t="s">
-        <v>37</v>
+      <c r="A58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -4178,22 +4175,22 @@
     </row>
     <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="63" t="s">
-        <v>159</v>
+      <c r="H59" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -4215,23 +4212,23 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
-        <v>158</v>
+      <c r="A60" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C60" s="8"/>
       <c r="D60" s="9" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="64" t="s">
-        <v>160</v>
+      <c r="H60" s="63" t="s">
+        <v>159</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -4254,20 +4251,22 @@
     </row>
     <row r="61" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C61" s="11"/>
-      <c r="D61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>177</v>
+      <c r="F61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="64" t="s">
+        <v>160</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4289,14 +4288,22 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="58"/>
+      <c r="A62" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4317,22 +4324,14 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="58"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -4354,17 +4353,21 @@
     </row>
     <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="75"/>
+      <c r="E64" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4386,17 +4389,17 @@
     </row>
     <row r="65" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B65" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4418,29 +4421,17 @@
     </row>
     <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="50" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -4461,23 +4452,29 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="51" t="s">
-        <v>37</v>
+      <c r="A67" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -4500,20 +4497,22 @@
     </row>
     <row r="68" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
-      <c r="H68" s="49" t="s">
-        <v>132</v>
+      <c r="H68" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4535,23 +4534,21 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="65" t="s">
-        <v>144</v>
+      <c r="A69" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="43">
-        <v>1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C69" s="29"/>
       <c r="D69" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
-      <c r="G69" s="61"/>
+      <c r="G69" s="30"/>
       <c r="H69" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -4573,21 +4570,23 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="30"/>
+      <c r="A70" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="43">
+        <v>1</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>134</v>
+      </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
-      <c r="G70" s="61">
-        <v>0</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>182</v>
+      <c r="G70" s="61"/>
+      <c r="H70" s="49" t="s">
+        <v>135</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -4609,21 +4608,21 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="56" t="s">
+      <c r="A71" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="56" t="s">
-        <v>180</v>
+      <c r="C71" s="43"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="61">
+        <v>0</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4645,21 +4644,21 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="67" t="s">
-        <v>183</v>
+      <c r="A72" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -4681,14 +4680,22 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="2"/>
+      <c r="A73" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="67" t="s">
+        <v>183</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -4709,22 +4716,14 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -4746,17 +4745,21 @@
     </row>
     <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="75"/>
+      <c r="E75" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -4778,17 +4781,17 @@
     </row>
     <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -4809,28 +4812,18 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="A77" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -4851,23 +4844,27 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="47" t="s">
-        <v>34</v>
+      <c r="A78" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4890,22 +4887,22 @@
     </row>
     <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="46">
-        <v>150</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C79" s="46"/>
       <c r="D79" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="47" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4928,13 +4925,13 @@
     </row>
     <row r="80" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="B80" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="46">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>50</v>
@@ -4943,7 +4940,7 @@
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4966,22 +4963,22 @@
     </row>
     <row r="81" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="46"/>
+        <v>78</v>
+      </c>
+      <c r="C81" s="46">
+        <v>300</v>
+      </c>
       <c r="D81" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E81" s="19"/>
-      <c r="F81" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="47" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -5004,20 +5001,22 @@
     </row>
     <row r="82" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" s="46"/>
       <c r="D82" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
+      <c r="F82" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="G82" s="19"/>
       <c r="H82" s="47" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -5040,20 +5039,20 @@
     </row>
     <row r="83" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B83" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="46"/>
-      <c r="D83" s="19"/>
+      <c r="D83" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="19">
-        <v>0</v>
-      </c>
+      <c r="G83" s="19"/>
       <c r="H83" s="47" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -5076,10 +5075,10 @@
     </row>
     <row r="84" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C84" s="46"/>
       <c r="D84" s="19"/>
@@ -5089,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="47" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -5112,22 +5111,20 @@
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="46">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C85" s="46"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="59" t="s">
-        <v>93</v>
+      <c r="G85" s="19">
+        <v>0</v>
       </c>
       <c r="H85" s="47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -5149,14 +5146,24 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="45"/>
+      <c r="A86" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="46">
+        <v>1</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" s="47" t="s">
+        <v>94</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5177,14 +5184,14 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="2"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5205,7 +5212,7 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="3"/>
+      <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="14"/>
@@ -5233,22 +5240,14 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="69"/>
-      <c r="E89" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5270,17 +5269,21 @@
     </row>
     <row r="90" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="75"/>
+      <c r="E90" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5302,17 +5305,17 @@
     </row>
     <row r="91" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B91" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5333,28 +5336,18 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A92" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5375,23 +5368,27 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="5" t="s">
-        <v>19</v>
+      <c r="A93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -5413,23 +5410,23 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="10" t="s">
-        <v>168</v>
+      <c r="A94" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="8">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C94" s="8"/>
       <c r="D94" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -5451,14 +5448,24 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="2"/>
+      <c r="A95" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="8">
+        <v>50</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -5479,14 +5486,14 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="3"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -5507,22 +5514,14 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C97" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="85"/>
-      <c r="E97" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="3"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -5543,18 +5542,22 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
+      <c r="A98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="78"/>
+      <c r="E98" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -5576,17 +5579,17 @@
     </row>
     <row r="99" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="B99" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -5607,28 +5610,18 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A100" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -5649,23 +5642,27 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="5" t="s">
-        <v>19</v>
+      <c r="A101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -5687,23 +5684,23 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" s="25" t="s">
+      <c r="A102" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="27"/>
-      <c r="H102" s="25" t="s">
-        <v>175</v>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -5725,23 +5722,23 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="29">
-        <v>255</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="29" t="s">
-        <v>33</v>
+      <c r="A103" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="27"/>
+      <c r="H103" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -5763,14 +5760,24 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="2"/>
+      <c r="A104" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="29">
+        <v>255</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -5819,22 +5826,14 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="74"/>
-      <c r="E106" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -5855,18 +5854,22 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
-      <c r="H107" s="89"/>
+      <c r="A107" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="72"/>
+      <c r="E107" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -5879,18 +5882,18 @@
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
+      <c r="A108" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="81"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="81"/>
+      <c r="H108" s="82"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -5904,27 +5907,17 @@
     </row>
     <row r="109" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B109" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -5937,23 +5930,27 @@
       <c r="R109" s="2"/>
     </row>
     <row r="110" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="29"/>
-      <c r="D110" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="47" t="s">
-        <v>34</v>
+      <c r="A110" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5968,22 +5965,22 @@
     </row>
     <row r="111" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111" s="29">
-        <v>150</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="29"/>
       <c r="D111" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>100</v>
+      </c>
       <c r="F111" s="30"/>
       <c r="G111" s="30"/>
       <c r="H111" s="47" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -5997,23 +5994,23 @@
       <c r="R111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="8">
-        <v>300</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="17" t="s">
-        <v>105</v>
+      <c r="C112" s="29">
+        <v>150</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -6028,13 +6025,13 @@
     </row>
     <row r="113" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C113" s="8">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>18</v>
@@ -6043,7 +6040,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -6058,24 +6055,22 @@
     </row>
     <row r="114" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="12" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C114" s="8">
+        <v>255</v>
+      </c>
       <c r="D114" s="9" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G114" s="9">
-        <v>0</v>
-      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -6090,20 +6085,24 @@
     </row>
     <row r="115" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="9" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="F115" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="9">
+        <v>0</v>
+      </c>
       <c r="H115" s="17" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -6118,20 +6117,20 @@
     </row>
     <row r="116" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="12" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="9">
-        <v>0</v>
-      </c>
+      <c r="G116" s="9"/>
       <c r="H116" s="17" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -6146,22 +6145,20 @@
     </row>
     <row r="117" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C117" s="8">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C117" s="8"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="16" t="s">
-        <v>113</v>
+      <c r="G117" s="9">
+        <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -6175,14 +6172,24 @@
       <c r="R117" s="2"/>
     </row>
     <row r="118" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="12"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="8"/>
+      <c r="A118" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1</v>
+      </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="17"/>
+      <c r="G118" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -6215,14 +6222,14 @@
       <c r="R119" s="2"/>
     </row>
     <row r="120" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="2"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="17"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -6238,10 +6245,10 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -6377,10 +6384,11 @@
     <row r="128" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -6396,11 +6404,10 @@
     <row r="129" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -6758,10 +6765,11 @@
     <row r="148" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -6769,11 +6777,10 @@
     <row r="149" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -7006,6 +7013,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -7033,7 +7041,6 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -7141,10 +7148,10 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -7196,6 +7203,13 @@
     </row>
     <row r="169" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -7208,6 +7222,7 @@
       <c r="R169" s="2"/>
     </row>
     <row r="170" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -8419,54 +8434,55 @@
       <c r="Z254" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="B98:H98"/>
+  <mergeCells count="48">
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
     <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B99:H99"/>
     <mergeCell ref="B91:H91"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:H75"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B8:H8"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="B108:H108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
